--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.7304217136297</v>
+        <v>71.329076</v>
       </c>
       <c r="H2">
-        <v>51.7304217136297</v>
+        <v>213.987228</v>
       </c>
       <c r="I2">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="J2">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>516.2521766438026</v>
+        <v>1224.47272302628</v>
       </c>
       <c r="R2">
-        <v>516.2521766438026</v>
+        <v>11020.25450723652</v>
       </c>
       <c r="S2">
-        <v>0.008890043363748353</v>
+        <v>0.01853322277325984</v>
       </c>
       <c r="T2">
-        <v>0.008890043363748353</v>
+        <v>0.01853322277325984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.7304217136297</v>
+        <v>71.329076</v>
       </c>
       <c r="H3">
-        <v>51.7304217136297</v>
+        <v>213.987228</v>
       </c>
       <c r="I3">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="J3">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>13225.64821686752</v>
+        <v>18291.93534488854</v>
       </c>
       <c r="R3">
-        <v>13225.64821686752</v>
+        <v>164627.4181039968</v>
       </c>
       <c r="S3">
-        <v>0.2277502962331477</v>
+        <v>0.276860812271119</v>
       </c>
       <c r="T3">
-        <v>0.2277502962331477</v>
+        <v>0.276860812271119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.7304217136297</v>
+        <v>71.329076</v>
       </c>
       <c r="H4">
-        <v>51.7304217136297</v>
+        <v>213.987228</v>
       </c>
       <c r="I4">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="J4">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>1660.395358601556</v>
+        <v>2335.698316854205</v>
       </c>
       <c r="R4">
-        <v>1660.395358601556</v>
+        <v>21021.28485168785</v>
       </c>
       <c r="S4">
-        <v>0.02859258983641813</v>
+        <v>0.0353523736571288</v>
       </c>
       <c r="T4">
-        <v>0.02859258983641813</v>
+        <v>0.03535237365712881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>128.871908623701</v>
+        <v>129.5615336666667</v>
       </c>
       <c r="H5">
-        <v>128.871908623701</v>
+        <v>388.684601</v>
       </c>
       <c r="I5">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="J5">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>1286.098220956465</v>
+        <v>2224.121954534844</v>
       </c>
       <c r="R5">
-        <v>1286.098220956465</v>
+        <v>20017.09759081359</v>
       </c>
       <c r="S5">
-        <v>0.02214706198174796</v>
+        <v>0.03366358995439025</v>
       </c>
       <c r="T5">
-        <v>0.02214706198174796</v>
+        <v>0.03366358995439025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>128.871908623701</v>
+        <v>129.5615336666667</v>
       </c>
       <c r="H6">
-        <v>128.871908623701</v>
+        <v>388.684601</v>
       </c>
       <c r="I6">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="J6">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>32948.01148014406</v>
+        <v>33225.31749906962</v>
       </c>
       <c r="R6">
-        <v>32948.01148014406</v>
+        <v>299027.8574916265</v>
       </c>
       <c r="S6">
-        <v>0.5673763018530715</v>
+        <v>0.5028876506131282</v>
       </c>
       <c r="T6">
-        <v>0.5673763018530715</v>
+        <v>0.5028876506131282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>128.871908623701</v>
+        <v>129.5615336666667</v>
       </c>
       <c r="H7">
-        <v>128.871908623701</v>
+        <v>388.684601</v>
       </c>
       <c r="I7">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="J7">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>4136.411648013665</v>
+        <v>4242.542776164419</v>
       </c>
       <c r="R7">
-        <v>4136.411648013665</v>
+        <v>38182.88498547977</v>
       </c>
       <c r="S7">
-        <v>0.07123045787471301</v>
+        <v>0.06421375414669152</v>
       </c>
       <c r="T7">
-        <v>0.07123045787471301</v>
+        <v>0.06421375414669152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.435374159448</v>
+        <v>14.770314</v>
       </c>
       <c r="H8">
-        <v>14.435374159448</v>
+        <v>44.310942</v>
       </c>
       <c r="I8">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428214</v>
       </c>
       <c r="J8">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428215</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>144.0601696954509</v>
+        <v>253.55503839042</v>
       </c>
       <c r="R8">
-        <v>144.0601696954509</v>
+        <v>2281.99534551378</v>
       </c>
       <c r="S8">
-        <v>0.002480766597261531</v>
+        <v>0.003837726985177806</v>
       </c>
       <c r="T8">
-        <v>0.002480766597261531</v>
+        <v>0.003837726985177807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.435374159448</v>
+        <v>14.770314</v>
       </c>
       <c r="H9">
-        <v>14.435374159448</v>
+        <v>44.310942</v>
       </c>
       <c r="I9">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428214</v>
       </c>
       <c r="J9">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428215</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>3690.617129869964</v>
+        <v>3787.762913285208</v>
       </c>
       <c r="R9">
-        <v>3690.617129869964</v>
+        <v>34089.86621956687</v>
       </c>
       <c r="S9">
-        <v>0.06355372007695019</v>
+        <v>0.05733035335463312</v>
       </c>
       <c r="T9">
-        <v>0.06355372007695019</v>
+        <v>0.05733035335463314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.435374159448</v>
+        <v>14.770314</v>
       </c>
       <c r="H10">
-        <v>14.435374159448</v>
+        <v>44.310942</v>
       </c>
       <c r="I10">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428214</v>
       </c>
       <c r="J10">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428215</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>463.333324184156</v>
+        <v>483.659672658708</v>
       </c>
       <c r="R10">
-        <v>463.333324184156</v>
+        <v>4352.937053928373</v>
       </c>
       <c r="S10">
-        <v>0.007978762182941527</v>
+        <v>0.007320516244471199</v>
       </c>
       <c r="T10">
-        <v>0.007978762182941527</v>
+        <v>0.007320516244471201</v>
       </c>
     </row>
   </sheetData>
